--- a/biology/Médecine/Fritz_Künkel/Fritz_Künkel.xlsx
+++ b/biology/Médecine/Fritz_Künkel/Fritz_Künkel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fritz_K%C3%BCnkel</t>
+          <t>Fritz_Künkel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fritz Künkel, né le 6 septembre 1889 à Landsberg-sur-la-Warthe, en province de Brandebourg, et mort en avril 1956 à Los Angeles, est un psychiatre américain d'origine allemande.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fritz_K%C3%BCnkel</t>
+          <t>Fritz_Künkel</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né en Prusse dans une famille allemande, il fait ses études à l'université de Munich et de Berlin, puis s'installe comme neurologue et psychiatre à Berlin. Il était devenu un adepte des théories et des pratiques d'Alfred Adler[1] et défendait une psychologie du nous qui s'opposait à celle d'un je à laquelle il assimilait le freudisme et la psychanalyse. Il a développé un corpus théorique important sur la caractérologie dont il est un des représentants à la suite de Kretschmer.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né en Prusse dans une famille allemande, il fait ses études à l'université de Munich et de Berlin, puis s'installe comme neurologue et psychiatre à Berlin. Il était devenu un adepte des théories et des pratiques d'Alfred Adler et défendait une psychologie du nous qui s'opposait à celle d'un je à laquelle il assimilait le freudisme et la psychanalyse. Il a développé un corpus théorique important sur la caractérologie dont il est un des représentants à la suite de Kretschmer.
 Il s'est engagé dans quelques-unes des idées du nazisme sans en adopter les positions antisémites. Son épouse est juive et ils ont trois enfants et il émigre aux États-Unis. Il avait été membre de "l'Institut allemand de recherche en psychologie et de psychothérapie" (Deutsches Institut für psychologische Forschung und Psychotherapie) devenu l'Institut Göring dans l'espoir de développer ses thèses sur le lien entre psychologie individuelle et collective.
 </t>
         </is>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fritz_K%C3%BCnkel</t>
+          <t>Fritz_Künkel</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Fritz Künkel, Psychologie van het ongeloof.
 Fritz Künkel et Ruth Kunkel, Die Grundbegriffe der Individualpsychologie, 1927.
